--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW15.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha2F-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -964,7 +964,7 @@
         <v>0.995283428989974</v>
       </c>
       <c r="H13">
-        <v>0.9936843623978169</v>
+        <v>0.9936843623978173</v>
       </c>
       <c r="I13">
         <v>0.9916000851862199</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9787495221468681</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.13768898836368</v>
+      </c>
+      <c r="D16">
+        <v>1.344620042544543</v>
+      </c>
+      <c r="E16">
+        <v>0.8372164374120621</v>
+      </c>
+      <c r="F16">
+        <v>1.13768898836368</v>
+      </c>
+      <c r="G16">
+        <v>1.08840550983146</v>
+      </c>
+      <c r="H16">
+        <v>0.976955512593477</v>
+      </c>
+      <c r="I16">
+        <v>0.9024898308117507</v>
+      </c>
+      <c r="J16">
+        <v>1.344620042544543</v>
+      </c>
+      <c r="K16">
+        <v>1.090918239978302</v>
+      </c>
+      <c r="L16">
+        <v>1.114303614170991</v>
+      </c>
+      <c r="M16">
+        <v>1.047896053592829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.13768898836368</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW15.xlsx
@@ -967,7 +967,7 @@
         <v>0.995283428989974</v>
       </c>
       <c r="H13">
-        <v>0.9936843623978173</v>
+        <v>0.9936843623978169</v>
       </c>
       <c r="I13">
         <v>0.9916000851862199</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.3952279999999991</v>
+        <v>1.13768898836368</v>
       </c>
       <c r="D10">
-        <v>1.370671999999999</v>
+        <v>1.344620042544543</v>
       </c>
       <c r="E10">
-        <v>1.164703999999999</v>
+        <v>0.8372164374120621</v>
       </c>
       <c r="F10">
-        <v>0.3952279999999991</v>
+        <v>1.13768898836368</v>
       </c>
       <c r="G10">
-        <v>1.216911999999999</v>
+        <v>1.08840550983146</v>
       </c>
       <c r="H10">
-        <v>0.8902080000000011</v>
+        <v>0.976955512593477</v>
       </c>
       <c r="I10">
-        <v>0.929971999999999</v>
+        <v>0.9024898308117507</v>
       </c>
       <c r="J10">
-        <v>1.370671999999999</v>
+        <v>1.344620042544543</v>
       </c>
       <c r="K10">
-        <v>1.267687999999999</v>
+        <v>1.090918239978302</v>
       </c>
       <c r="L10">
-        <v>0.8314579999999993</v>
+        <v>1.114303614170991</v>
       </c>
       <c r="M10">
-        <v>0.9946159999999996</v>
+        <v>1.047896053592829</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.31</v>
+        <v>0.7651948124924769</v>
       </c>
       <c r="D11">
-        <v>0.9694499999999986</v>
+        <v>1.181136391814979</v>
       </c>
       <c r="E11">
-        <v>1.2669625</v>
+        <v>1.127575581515259</v>
       </c>
       <c r="F11">
-        <v>0.31</v>
+        <v>0.7651948124924769</v>
       </c>
       <c r="G11">
-        <v>1.328899999999998</v>
+        <v>0.772979072012949</v>
       </c>
       <c r="H11">
-        <v>0.3518125</v>
+        <v>1.864020508882341</v>
       </c>
       <c r="I11">
-        <v>0.9754124999999987</v>
+        <v>1.002967414420635</v>
       </c>
       <c r="J11">
-        <v>0.9694499999999986</v>
+        <v>1.181136391814979</v>
       </c>
       <c r="K11">
-        <v>1.118206249999999</v>
+        <v>1.154355986665119</v>
       </c>
       <c r="L11">
-        <v>0.7141031249999997</v>
+        <v>0.9597753995787981</v>
       </c>
       <c r="M11">
-        <v>0.8670895833333324</v>
+        <v>1.118978963523107</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5953674003456007</v>
+        <v>0.7653420731439856</v>
       </c>
       <c r="D12">
-        <v>0.9834707202048005</v>
+        <v>1.18596988770984</v>
       </c>
       <c r="E12">
-        <v>1.144458958336</v>
+        <v>1.12625616530588</v>
       </c>
       <c r="F12">
-        <v>0.5953674003456007</v>
+        <v>0.7653420731439856</v>
       </c>
       <c r="G12">
-        <v>1.191922997452795</v>
+        <v>0.7750816353327526</v>
       </c>
       <c r="H12">
-        <v>0.6252397907967999</v>
+        <v>1.860234059260663</v>
       </c>
       <c r="I12">
-        <v>0.9788134093824021</v>
+        <v>1.0018878406567</v>
       </c>
       <c r="J12">
-        <v>0.9834707202048005</v>
+        <v>1.18596988770984</v>
       </c>
       <c r="K12">
-        <v>1.0639648392704</v>
+        <v>1.15611302650786</v>
       </c>
       <c r="L12">
-        <v>0.8296661198080004</v>
+        <v>0.9607275498259227</v>
       </c>
       <c r="M12">
-        <v>0.9198788794197331</v>
+        <v>1.11912861023497</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9922062680256901</v>
+        <v>0.764698861676065</v>
       </c>
       <c r="D13">
-        <v>0.9944092301715433</v>
+        <v>1.183782916767716</v>
       </c>
       <c r="E13">
-        <v>0.9935858274194457</v>
+        <v>1.127110054544323</v>
       </c>
       <c r="F13">
-        <v>0.9922062680256901</v>
+        <v>0.764698861676065</v>
       </c>
       <c r="G13">
-        <v>0.995283428989974</v>
+        <v>0.7735827411407111</v>
       </c>
       <c r="H13">
-        <v>0.9936843623978169</v>
+        <v>1.864237336250705</v>
       </c>
       <c r="I13">
-        <v>0.9916000851862199</v>
+        <v>1.002435537147461</v>
       </c>
       <c r="J13">
-        <v>0.9944092301715433</v>
+        <v>1.183782916767716</v>
       </c>
       <c r="K13">
-        <v>0.9939975287954945</v>
+        <v>1.155446485656019</v>
       </c>
       <c r="L13">
-        <v>0.9931018984105923</v>
+        <v>0.9600726736660421</v>
       </c>
       <c r="M13">
-        <v>0.9934615336984484</v>
+        <v>1.119307907921163</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.05854664439226</v>
+        <v>0.3952279999999991</v>
       </c>
       <c r="D14">
-        <v>0.9583883341684082</v>
+        <v>1.370671999999999</v>
       </c>
       <c r="E14">
-        <v>0.9857745936435465</v>
+        <v>1.164703999999999</v>
       </c>
       <c r="F14">
-        <v>1.05854664439226</v>
+        <v>0.3952279999999991</v>
       </c>
       <c r="G14">
-        <v>0.9726969463737386</v>
+        <v>1.216911999999999</v>
       </c>
       <c r="H14">
-        <v>0.9761212206520378</v>
+        <v>0.8902080000000011</v>
       </c>
       <c r="I14">
-        <v>0.9950523855902844</v>
+        <v>0.929971999999999</v>
       </c>
       <c r="J14">
-        <v>0.9583883341684082</v>
+        <v>1.370671999999999</v>
       </c>
       <c r="K14">
-        <v>0.9720814639059774</v>
+        <v>1.267687999999999</v>
       </c>
       <c r="L14">
-        <v>1.015314054149119</v>
+        <v>0.8314579999999993</v>
       </c>
       <c r="M14">
-        <v>0.9910966874700459</v>
+        <v>0.9946159999999996</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.982860628365593</v>
+        <v>0.31</v>
       </c>
       <c r="D15">
-        <v>0.8634002952354012</v>
+        <v>0.9694499999999986</v>
       </c>
       <c r="E15">
-        <v>1.026070166851072</v>
+        <v>1.2669625</v>
       </c>
       <c r="F15">
-        <v>0.982860628365593</v>
+        <v>0.31</v>
       </c>
       <c r="G15">
-        <v>0.9564591803213203</v>
+        <v>1.328899999999998</v>
       </c>
       <c r="H15">
-        <v>1.02742271636487</v>
+        <v>0.3518125</v>
       </c>
       <c r="I15">
-        <v>1.016284145742951</v>
+        <v>0.9754124999999987</v>
       </c>
       <c r="J15">
-        <v>0.8634002952354012</v>
+        <v>0.9694499999999986</v>
       </c>
       <c r="K15">
-        <v>0.9447352310432366</v>
+        <v>1.118206249999999</v>
       </c>
       <c r="L15">
-        <v>0.9637979297044148</v>
+        <v>0.7141031249999997</v>
       </c>
       <c r="M15">
-        <v>0.9787495221468681</v>
+        <v>0.8670895833333324</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.13768898836368</v>
+        <v>0.5953674003456007</v>
       </c>
       <c r="D16">
-        <v>1.344620042544543</v>
+        <v>0.9834707202048005</v>
       </c>
       <c r="E16">
-        <v>0.8372164374120621</v>
+        <v>1.144458958336</v>
       </c>
       <c r="F16">
-        <v>1.13768898836368</v>
+        <v>0.5953674003456007</v>
       </c>
       <c r="G16">
-        <v>1.08840550983146</v>
+        <v>1.191922997452795</v>
       </c>
       <c r="H16">
-        <v>0.976955512593477</v>
+        <v>0.6252397907967999</v>
       </c>
       <c r="I16">
-        <v>0.9024898308117507</v>
+        <v>0.9788134093824021</v>
       </c>
       <c r="J16">
-        <v>1.344620042544543</v>
+        <v>0.9834707202048005</v>
       </c>
       <c r="K16">
-        <v>1.090918239978302</v>
+        <v>1.0639648392704</v>
       </c>
       <c r="L16">
-        <v>1.114303614170991</v>
+        <v>0.8296661198080004</v>
       </c>
       <c r="M16">
-        <v>1.047896053592829</v>
+        <v>0.9198788794197331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9922062680256901</v>
+      </c>
+      <c r="D17">
+        <v>0.9944092301715433</v>
+      </c>
+      <c r="E17">
+        <v>0.9935858274194457</v>
+      </c>
+      <c r="F17">
+        <v>0.9922062680256901</v>
+      </c>
+      <c r="G17">
+        <v>0.995283428989974</v>
+      </c>
+      <c r="H17">
+        <v>0.9936843623978173</v>
+      </c>
+      <c r="I17">
+        <v>0.9916000851862199</v>
+      </c>
+      <c r="J17">
+        <v>0.9944092301715433</v>
+      </c>
+      <c r="K17">
+        <v>0.9939975287954945</v>
+      </c>
+      <c r="L17">
+        <v>0.9931018984105923</v>
+      </c>
+      <c r="M17">
+        <v>0.9934615336984484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.05854664439226</v>
+      </c>
+      <c r="D18">
+        <v>0.9583883341684082</v>
+      </c>
+      <c r="E18">
+        <v>0.9857745936435465</v>
+      </c>
+      <c r="F18">
+        <v>1.05854664439226</v>
+      </c>
+      <c r="G18">
+        <v>0.9726969463737386</v>
+      </c>
+      <c r="H18">
+        <v>0.9761212206520378</v>
+      </c>
+      <c r="I18">
+        <v>0.9950523855902844</v>
+      </c>
+      <c r="J18">
+        <v>0.9583883341684082</v>
+      </c>
+      <c r="K18">
+        <v>0.9720814639059774</v>
+      </c>
+      <c r="L18">
+        <v>1.015314054149119</v>
+      </c>
+      <c r="M18">
+        <v>0.9910966874700459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.982860628365593</v>
+      </c>
+      <c r="D19">
+        <v>0.8634002952354012</v>
+      </c>
+      <c r="E19">
+        <v>1.026070166851072</v>
+      </c>
+      <c r="F19">
+        <v>0.982860628365593</v>
+      </c>
+      <c r="G19">
+        <v>0.9564591803213203</v>
+      </c>
+      <c r="H19">
+        <v>1.02742271636487</v>
+      </c>
+      <c r="I19">
+        <v>1.016284145742951</v>
+      </c>
+      <c r="J19">
+        <v>0.8634002952354012</v>
+      </c>
+      <c r="K19">
+        <v>0.9447352310432366</v>
+      </c>
+      <c r="L19">
+        <v>0.9637979297044148</v>
+      </c>
+      <c r="M19">
+        <v>0.9787495221468681</v>
       </c>
     </row>
   </sheetData>
